--- a/DATA/RAW/bond_data/os_PA5630039_Charleroi.xlsx
+++ b/DATA/RAW/bond_data/os_PA5630039_Charleroi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lap19\Documents\WaterUtilities\UtilityData\PA\data\Official_Statements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19524\Box\Shrinking Cities MP\data\bond_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D97BAFD8649BF64839C7EC61E98023F5C40E7DE0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E778C-F02F-4B76-85DB-AFC020497AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="12156" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="17" r:id="rId1"/>
@@ -33,8 +33,9 @@
     <sheet name="fiscal" sheetId="16" r:id="rId18"/>
     <sheet name="assets" sheetId="20" r:id="rId19"/>
     <sheet name="revCollect" sheetId="15" r:id="rId20"/>
+    <sheet name="financialIndicators" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13216" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13292" uniqueCount="673">
   <si>
     <t>Put any interesting about utility development, finances, etc. here</t>
   </si>
@@ -1908,17 +1909,357 @@
   <si>
     <t>percentCollected</t>
   </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Revenues line</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Expenses line</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; Amortization Expenses</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization are listed as a line item within Operating Expenses</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Debt Principal Payments</t>
+  </si>
+  <si>
+    <t>Enter $0 if there were no debt service payments</t>
+  </si>
+  <si>
+    <t>[4b]</t>
+  </si>
+  <si>
+    <t>Debt Interest Payments</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Current Assets, excluding inventories, restricted cash, prepaids</t>
+  </si>
+  <si>
+    <t>Total Current Assets minus all inventories, prepaid items and any kind of restricted cash or restricted assets that cannot be used to pay for Current Liabilities</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Current Liabilities, excluding deposits &amp; bond anticipation notes</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities minus all refundable deposits and bond anticipation notes</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments (and Cash Equivalents) is listed as a line item within Current Assets</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Total Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Total accumulated depreciation on capital assets being depreciated (buildings, equipment, other improvements) is usually shown in the Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>Total Depreciable Capital Assets</t>
+  </si>
+  <si>
+    <t>Enter the total value of capital assets being depreciated (buildings, equipment, othre improvements) only. Often listed in Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>Capital Spending</t>
+  </si>
+  <si>
+    <t>Enter Current PPE less Prior PPE + Depreciation</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Operating Ratio (including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_[1]_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Operating Ratio (not including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <t>___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">___
+ [2] - [3] </t>
+    </r>
+  </si>
+  <si>
+    <t>Debt Service coverage ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[1] -  [2] + [3] _
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4] + [4b]</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[5]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>Days cash on hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____[7]____
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(([2] - [3])/365)</t>
+    </r>
+  </si>
+  <si>
+    <t>Percent of capital assets depreciated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9]</t>
+    </r>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__
+( [10] - [11])</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Average plant age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Replacement ratio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CapEx_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>*in cases where accumulated depcreciation is not available, calculate as: 35 - (net PPE / annual depreciation expense)</t>
+  </si>
+  <si>
+    <t>**can also look in cash flow statement for capex value</t>
+  </si>
+  <si>
+    <t>No mention of cash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1979,6 +2320,36 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2067,11 +2438,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2179,10 +2551,39 @@
     </xf>
     <xf numFmtId="39" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="39" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2480,10 +2881,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
@@ -2669,11 +3070,11 @@
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4787,14 +5188,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4845,11 +5246,11 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="8.7109375" style="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5022,14 +5423,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12773,13 +13174,13 @@
       <selection pane="bottomLeft" activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.7109375" style="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -19689,12 +20090,12 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20738,17 +21139,17 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
-      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" style="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -24253,9 +24654,9 @@
       <selection pane="bottomLeft" activeCell="Q706" sqref="Q706"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -53375,24 +53776,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AK92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="33"/>
+    <col min="1" max="3" width="8.6640625" style="33"/>
     <col min="4" max="4" width="21" style="33" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="37" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.7109375" style="33"/>
+    <col min="25" max="37" width="13.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -57850,21 +58251,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AK83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="33"/>
-    <col min="3" max="3" width="15.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="33" customWidth="1"/>
-    <col min="5" max="9" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="8.7109375" style="33"/>
-    <col min="16" max="18" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="8.7109375" style="33"/>
-    <col min="25" max="37" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.7109375" style="33"/>
+    <col min="1" max="2" width="8.6640625" style="33"/>
+    <col min="3" max="3" width="15.6640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="33" customWidth="1"/>
+    <col min="5" max="9" width="13.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="8.6640625" style="33"/>
+    <col min="16" max="18" width="13.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="8.6640625" style="33"/>
+    <col min="25" max="37" width="13.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -62692,17 +63093,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="8.7109375" style="1"/>
-    <col min="19" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -63414,9 +63815,9 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -63450,6 +63851,2910 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E01D9B-E547-4ECE-8339-6C176EBCE00A}">
+  <dimension ref="A1:AK38"/>
+  <sheetViews>
+    <sheetView topLeftCell="S13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:AK26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="B1" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="63">
+        <v>1987</v>
+      </c>
+      <c r="G1" s="63">
+        <v>1988</v>
+      </c>
+      <c r="H1" s="63">
+        <v>1989</v>
+      </c>
+      <c r="I1" s="63">
+        <v>1990</v>
+      </c>
+      <c r="J1" s="63">
+        <v>1991</v>
+      </c>
+      <c r="K1" s="63">
+        <v>1992</v>
+      </c>
+      <c r="L1" s="63">
+        <v>1993</v>
+      </c>
+      <c r="M1" s="63">
+        <v>1994</v>
+      </c>
+      <c r="N1" s="63">
+        <v>1995</v>
+      </c>
+      <c r="O1" s="63">
+        <v>1996</v>
+      </c>
+      <c r="P1" s="63">
+        <v>1997</v>
+      </c>
+      <c r="Q1" s="63">
+        <v>1998</v>
+      </c>
+      <c r="R1" s="63">
+        <v>1999</v>
+      </c>
+      <c r="S1" s="63">
+        <v>2000</v>
+      </c>
+      <c r="T1" s="63">
+        <v>2001</v>
+      </c>
+      <c r="U1" s="63">
+        <v>2002</v>
+      </c>
+      <c r="V1" s="63">
+        <v>2003</v>
+      </c>
+      <c r="W1" s="63">
+        <v>2004</v>
+      </c>
+      <c r="X1" s="63">
+        <v>2005</v>
+      </c>
+      <c r="Y1" s="63">
+        <v>2006</v>
+      </c>
+      <c r="Z1" s="63">
+        <v>2007</v>
+      </c>
+      <c r="AA1" s="63">
+        <v>2008</v>
+      </c>
+      <c r="AB1" s="63">
+        <v>2009</v>
+      </c>
+      <c r="AC1" s="63">
+        <v>2010</v>
+      </c>
+      <c r="AD1" s="63">
+        <v>2011</v>
+      </c>
+      <c r="AE1" s="63">
+        <v>2012</v>
+      </c>
+      <c r="AF1" s="63">
+        <v>2013</v>
+      </c>
+      <c r="AG1" s="63">
+        <v>2014</v>
+      </c>
+      <c r="AH1" s="63">
+        <v>2015</v>
+      </c>
+      <c r="AI1" s="63">
+        <v>2016</v>
+      </c>
+      <c r="AJ1" s="63">
+        <v>2017</v>
+      </c>
+      <c r="AK1" s="63">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.6">
+      <c r="A2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="41">
+        <f>fiscal!E18</f>
+        <v>1983526</v>
+      </c>
+      <c r="G2" s="41">
+        <f>fiscal!F18</f>
+        <v>2376978</v>
+      </c>
+      <c r="H2" s="41">
+        <f>fiscal!G18</f>
+        <v>2373179</v>
+      </c>
+      <c r="I2" s="41">
+        <f>fiscal!H18</f>
+        <v>2353454</v>
+      </c>
+      <c r="J2" s="41">
+        <f>fiscal!I18</f>
+        <v>2581062</v>
+      </c>
+      <c r="K2" s="41">
+        <f>fiscal!J18</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="41">
+        <f>fiscal!K18</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="41">
+        <f>fiscal!L18</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="41">
+        <f>fiscal!M18</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="41">
+        <f>fiscal!N18</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="41">
+        <f>fiscal!O18</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="41">
+        <f>fiscal!P18</f>
+        <v>3544044</v>
+      </c>
+      <c r="R2" s="41">
+        <f>fiscal!Q18</f>
+        <v>3365453</v>
+      </c>
+      <c r="S2" s="41">
+        <f>fiscal!R18</f>
+        <v>3692308</v>
+      </c>
+      <c r="T2" s="41">
+        <f>fiscal!S18</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="41">
+        <f>fiscal!T18</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="41">
+        <f>fiscal!U18</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="41">
+        <f>fiscal!V18</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="41">
+        <f>fiscal!W18</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="41">
+        <f>fiscal!X18</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="41">
+        <f>fiscal!Y18</f>
+        <v>5424335</v>
+      </c>
+      <c r="AA2" s="41">
+        <f>fiscal!Z18</f>
+        <v>5358676</v>
+      </c>
+      <c r="AB2" s="41">
+        <f>fiscal!AA18</f>
+        <v>5565299</v>
+      </c>
+      <c r="AC2" s="41">
+        <f>fiscal!AB18</f>
+        <v>5767220</v>
+      </c>
+      <c r="AD2" s="41">
+        <f>fiscal!AC18</f>
+        <v>5681121</v>
+      </c>
+      <c r="AE2" s="41">
+        <f>fiscal!AD18</f>
+        <v>7162092</v>
+      </c>
+      <c r="AF2" s="41">
+        <f>fiscal!AE18</f>
+        <v>7215092</v>
+      </c>
+      <c r="AG2" s="41">
+        <f>fiscal!AF18</f>
+        <v>7837700</v>
+      </c>
+      <c r="AH2" s="41">
+        <f>fiscal!AG18</f>
+        <v>7837700</v>
+      </c>
+      <c r="AI2" s="41">
+        <f>fiscal!AH18</f>
+        <v>8513937</v>
+      </c>
+      <c r="AJ2" s="41">
+        <f>fiscal!AI18</f>
+        <v>8569085</v>
+      </c>
+      <c r="AK2" s="41">
+        <f>fiscal!AJ18</f>
+        <v>8742535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.6">
+      <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" s="41">
+        <f>fiscal!E26</f>
+        <v>1675060</v>
+      </c>
+      <c r="G3" s="41">
+        <f>fiscal!F26</f>
+        <v>1644777</v>
+      </c>
+      <c r="H3" s="41">
+        <f>fiscal!G26</f>
+        <v>1672892</v>
+      </c>
+      <c r="I3" s="41">
+        <f>fiscal!H26</f>
+        <v>1839524</v>
+      </c>
+      <c r="J3" s="41">
+        <f>fiscal!I26</f>
+        <v>1949652</v>
+      </c>
+      <c r="K3" s="41">
+        <f>fiscal!J26</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="41">
+        <f>fiscal!K26</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="41">
+        <f>fiscal!L26</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="41">
+        <f>fiscal!M26</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="41">
+        <f>fiscal!N26</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="41">
+        <f>fiscal!O26</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="41">
+        <f>fiscal!P26</f>
+        <v>2501348</v>
+      </c>
+      <c r="R3" s="41">
+        <f>fiscal!Q26</f>
+        <v>2662831</v>
+      </c>
+      <c r="S3" s="41">
+        <f>fiscal!R26</f>
+        <v>2635188</v>
+      </c>
+      <c r="T3" s="41">
+        <f>fiscal!S26</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="41">
+        <f>fiscal!T26</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="41">
+        <f>fiscal!U26</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="41">
+        <f>fiscal!V26</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="41">
+        <f>fiscal!W26</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="41">
+        <f>fiscal!X26</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="41">
+        <f>fiscal!Y26</f>
+        <v>3442252</v>
+      </c>
+      <c r="AA3" s="41">
+        <f>fiscal!Z26</f>
+        <v>3711838</v>
+      </c>
+      <c r="AB3" s="41">
+        <f>fiscal!AA26</f>
+        <v>4053832</v>
+      </c>
+      <c r="AC3" s="41">
+        <f>fiscal!AB26</f>
+        <v>4487617</v>
+      </c>
+      <c r="AD3" s="41">
+        <f>fiscal!AC26</f>
+        <v>4394635</v>
+      </c>
+      <c r="AE3" s="41">
+        <f>fiscal!AD26</f>
+        <v>5259621</v>
+      </c>
+      <c r="AF3" s="41">
+        <f>fiscal!AE26</f>
+        <v>5032141</v>
+      </c>
+      <c r="AG3" s="41">
+        <f>fiscal!AF26</f>
+        <v>5719575</v>
+      </c>
+      <c r="AH3" s="41">
+        <f>fiscal!AG26</f>
+        <v>6859945</v>
+      </c>
+      <c r="AI3" s="41">
+        <f>fiscal!AH26</f>
+        <v>7083216</v>
+      </c>
+      <c r="AJ3" s="41">
+        <f>fiscal!AI26</f>
+        <v>7750920</v>
+      </c>
+      <c r="AK3" s="41">
+        <f>fiscal!AJ26</f>
+        <v>7960406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.6">
+      <c r="A4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66">
+        <f>fiscal!E25</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="66">
+        <f>fiscal!F25</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="66">
+        <f>fiscal!G25</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="66">
+        <f>fiscal!H25</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="66">
+        <f>fiscal!I25</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="66">
+        <f>fiscal!J25</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="66">
+        <f>fiscal!K25</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="66">
+        <f>fiscal!L25</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="66">
+        <f>fiscal!M25</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="66">
+        <f>fiscal!N25</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="66">
+        <f>fiscal!O25</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="66">
+        <f>fiscal!P25</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="66">
+        <f>fiscal!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="66">
+        <f>fiscal!R25</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="66">
+        <f>fiscal!S25</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="66">
+        <f>fiscal!T25</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="66">
+        <f>fiscal!U25</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="66">
+        <f>fiscal!V25</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="66">
+        <f>fiscal!W25</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="66">
+        <f>fiscal!X25</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="66">
+        <f>fiscal!Y25</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="66">
+        <f>fiscal!Z25</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="66">
+        <f>fiscal!AA25</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="66">
+        <f>fiscal!AB25</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="66">
+        <f>fiscal!AC25</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="66">
+        <f>fiscal!AD25</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="66">
+        <f>fiscal!AE25</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="66">
+        <f>fiscal!AF25</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="66">
+        <f>fiscal!AG25</f>
+        <v>1140370</v>
+      </c>
+      <c r="AI4" s="66">
+        <f>fiscal!AH25</f>
+        <v>1260179</v>
+      </c>
+      <c r="AJ4" s="66">
+        <f>fiscal!AI25</f>
+        <v>1456885</v>
+      </c>
+      <c r="AK4" s="66">
+        <f>fiscal!AJ25</f>
+        <v>1669501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.6">
+      <c r="A5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.6">
+      <c r="A6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.6">
+      <c r="A7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
+        <f>assets!E12-assets!E8</f>
+        <v>739740</v>
+      </c>
+      <c r="G7" s="66">
+        <f>assets!F12-assets!F8</f>
+        <v>849537</v>
+      </c>
+      <c r="H7" s="66">
+        <f>assets!G12-assets!G8</f>
+        <v>855892</v>
+      </c>
+      <c r="I7" s="66">
+        <f>assets!H12-assets!H8</f>
+        <v>838910</v>
+      </c>
+      <c r="J7" s="66">
+        <f>assets!I12-assets!I8</f>
+        <v>921527</v>
+      </c>
+      <c r="K7" s="66">
+        <f>assets!J12-assets!J8</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="66">
+        <f>assets!K12-assets!K8</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="66">
+        <f>assets!L12-assets!L8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="66">
+        <f>assets!M12-assets!M8</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="66">
+        <f>assets!N12-assets!N8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="66">
+        <f>assets!O12-assets!O8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="66">
+        <f>assets!P12-assets!P8</f>
+        <v>1159093</v>
+      </c>
+      <c r="R7" s="66">
+        <f>assets!Q12-assets!Q8</f>
+        <v>1128475</v>
+      </c>
+      <c r="S7" s="66">
+        <f>assets!R12-assets!R8</f>
+        <v>2347314</v>
+      </c>
+      <c r="T7" s="66">
+        <f>assets!S12-assets!S8</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="66">
+        <f>assets!T12-assets!T8</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="66">
+        <f>assets!U12-assets!U8</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="66">
+        <f>assets!V12-assets!V8</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="66">
+        <f>assets!W12-assets!W8</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="66">
+        <f>assets!X12-assets!X8</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="66">
+        <f>assets!Y12-assets!Y8</f>
+        <v>1209513</v>
+      </c>
+      <c r="AA7" s="66">
+        <f>assets!Z12-assets!Z8</f>
+        <v>1717346</v>
+      </c>
+      <c r="AB7" s="66">
+        <f>assets!AA12-assets!AA8</f>
+        <v>2054256</v>
+      </c>
+      <c r="AC7" s="66">
+        <f>assets!AB12-assets!AB8</f>
+        <v>2001574</v>
+      </c>
+      <c r="AD7" s="66">
+        <f>assets!AC12-assets!AC8</f>
+        <v>1754095</v>
+      </c>
+      <c r="AE7" s="66">
+        <f>assets!AD12-assets!AD8</f>
+        <v>2072199</v>
+      </c>
+      <c r="AF7" s="66">
+        <f>assets!AE12-assets!AE8</f>
+        <v>2229776</v>
+      </c>
+      <c r="AG7" s="66">
+        <f>assets!AF12-assets!AF8</f>
+        <v>2688303</v>
+      </c>
+      <c r="AH7" s="66">
+        <f>assets!AG12-assets!AG8</f>
+        <v>2688303</v>
+      </c>
+      <c r="AI7" s="66">
+        <f>assets!AH12-assets!AH8</f>
+        <v>3898913</v>
+      </c>
+      <c r="AJ7" s="66">
+        <f>assets!AI12-assets!AI8</f>
+        <v>4156622</v>
+      </c>
+      <c r="AK7" s="66">
+        <f>assets!AJ12-assets!AJ8</f>
+        <v>3770426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.6">
+      <c r="A8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66">
+        <f>assets!E30-assets!E28</f>
+        <v>173314</v>
+      </c>
+      <c r="G8" s="66">
+        <f>assets!F30-assets!F28</f>
+        <v>161601</v>
+      </c>
+      <c r="H8" s="66">
+        <f>assets!G30-assets!G28</f>
+        <v>186083</v>
+      </c>
+      <c r="I8" s="66">
+        <f>assets!H30-assets!H28</f>
+        <v>178718</v>
+      </c>
+      <c r="J8" s="66">
+        <f>assets!I30-assets!I28</f>
+        <v>210268</v>
+      </c>
+      <c r="K8" s="66">
+        <f>assets!J30-assets!J28</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="66">
+        <f>assets!K30-assets!K28</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="66">
+        <f>assets!L30-assets!L28</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="66">
+        <f>assets!M30-assets!M28</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="66">
+        <f>assets!N30-assets!N28</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="66">
+        <f>assets!O30-assets!O28</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="66">
+        <f>assets!P30-assets!P28</f>
+        <v>544906</v>
+      </c>
+      <c r="R8" s="66">
+        <f>assets!Q30-assets!Q28</f>
+        <v>660163</v>
+      </c>
+      <c r="S8" s="66">
+        <f>assets!R30-assets!R28</f>
+        <v>950432</v>
+      </c>
+      <c r="T8" s="66">
+        <f>assets!S30-assets!S28</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="66">
+        <f>assets!T30-assets!T28</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="66">
+        <f>assets!U30-assets!U28</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="66">
+        <f>assets!V30-assets!V28</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="66">
+        <f>assets!W30-assets!W28</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="66">
+        <f>assets!X30-assets!X28</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="66">
+        <f>assets!Y30-assets!Y28</f>
+        <v>1064450</v>
+      </c>
+      <c r="AA8" s="66">
+        <f>assets!Z30-assets!Z28</f>
+        <v>2210410</v>
+      </c>
+      <c r="AB8" s="66">
+        <f>assets!AA30-assets!AA28</f>
+        <v>1339601</v>
+      </c>
+      <c r="AC8" s="66">
+        <f>assets!AB30-assets!AB28</f>
+        <v>2295468</v>
+      </c>
+      <c r="AD8" s="66">
+        <f>assets!AC30-assets!AC28</f>
+        <v>1549683</v>
+      </c>
+      <c r="AE8" s="66">
+        <f>assets!AD30-assets!AD28</f>
+        <v>1991820</v>
+      </c>
+      <c r="AF8" s="66">
+        <f>assets!AE30-assets!AE28</f>
+        <v>1283389</v>
+      </c>
+      <c r="AG8" s="66">
+        <f>assets!AF30-assets!AF28</f>
+        <v>2111080</v>
+      </c>
+      <c r="AH8" s="66">
+        <f>assets!AG30-assets!AG28</f>
+        <v>2111080</v>
+      </c>
+      <c r="AI8" s="66">
+        <f>assets!AH30-assets!AH28</f>
+        <v>1620901</v>
+      </c>
+      <c r="AJ8" s="66">
+        <f>assets!AI30-assets!AI28</f>
+        <v>1071933</v>
+      </c>
+      <c r="AK8" s="66">
+        <f>assets!AJ30-assets!AJ28</f>
+        <v>1436866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.6">
+      <c r="A9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>635</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.6">
+      <c r="A10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6">
+      <c r="A11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67">
+        <f>assets!E16</f>
+        <v>7595786</v>
+      </c>
+      <c r="G11" s="67">
+        <f>assets!F16</f>
+        <v>7435860</v>
+      </c>
+      <c r="H11" s="67">
+        <f>assets!G16</f>
+        <v>7831229</v>
+      </c>
+      <c r="I11" s="67">
+        <f>assets!H16</f>
+        <v>7962066</v>
+      </c>
+      <c r="J11" s="67">
+        <f>assets!I16</f>
+        <v>8286175</v>
+      </c>
+      <c r="K11" s="67">
+        <f>assets!J16</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="67">
+        <f>assets!K16</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="67">
+        <f>assets!L16</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="67">
+        <f>assets!M16</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="67">
+        <f>assets!N16</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="67">
+        <f>assets!O16</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="67">
+        <f>assets!P16</f>
+        <v>12405548</v>
+      </c>
+      <c r="R11" s="67">
+        <f>assets!Q16</f>
+        <v>13427742</v>
+      </c>
+      <c r="S11" s="67">
+        <f>assets!R16</f>
+        <v>14462315</v>
+      </c>
+      <c r="T11" s="67">
+        <f>assets!S16</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="67">
+        <f>assets!T16</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="67">
+        <f>assets!U16</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="67">
+        <f>assets!V16</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="67">
+        <f>assets!W16</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="67">
+        <f>assets!X16</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="67">
+        <f>assets!Y16</f>
+        <v>16662435</v>
+      </c>
+      <c r="AA11" s="67">
+        <f>assets!Z16</f>
+        <v>18645850</v>
+      </c>
+      <c r="AB11" s="67">
+        <f>assets!AA16</f>
+        <v>20397716</v>
+      </c>
+      <c r="AC11" s="67">
+        <f>assets!AB16</f>
+        <v>23106787</v>
+      </c>
+      <c r="AD11" s="67">
+        <f>assets!AC16</f>
+        <v>28187774</v>
+      </c>
+      <c r="AE11" s="67">
+        <f>assets!AD16</f>
+        <v>30977381</v>
+      </c>
+      <c r="AF11" s="67">
+        <f>assets!AE16</f>
+        <v>32313966</v>
+      </c>
+      <c r="AG11" s="67">
+        <f>assets!AF16</f>
+        <v>36106050</v>
+      </c>
+      <c r="AH11" s="67">
+        <f>assets!AG16</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="67">
+        <f>assets!AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="67">
+        <f>assets!AI16</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="67">
+        <f>assets!AJ16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.6">
+      <c r="A12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" s="41">
+        <f>assets!E22</f>
+        <v>10751173</v>
+      </c>
+      <c r="G12" s="41">
+        <f>assets!F22</f>
+        <v>10989924</v>
+      </c>
+      <c r="H12" s="41">
+        <f>assets!G22</f>
+        <v>11417272</v>
+      </c>
+      <c r="I12" s="41">
+        <f>assets!H22</f>
+        <v>11438804</v>
+      </c>
+      <c r="J12" s="41">
+        <f>assets!I22</f>
+        <v>11505031</v>
+      </c>
+      <c r="K12" s="41">
+        <f>assets!J22</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="41">
+        <f>assets!K22</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="41">
+        <f>assets!L22</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="41">
+        <f>assets!M22</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="41">
+        <f>assets!N22</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="41">
+        <f>assets!O22</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="41">
+        <f>assets!P22</f>
+        <v>13689552</v>
+      </c>
+      <c r="R12" s="41">
+        <f>assets!Q22</f>
+        <v>14657950</v>
+      </c>
+      <c r="S12" s="41">
+        <f>assets!R22</f>
+        <v>16899296</v>
+      </c>
+      <c r="T12" s="41">
+        <f>assets!S22</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="41">
+        <f>assets!T22</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="41">
+        <f>assets!U22</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="41">
+        <f>assets!V22</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="41">
+        <f>assets!W22</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="41">
+        <f>assets!X22</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="41">
+        <f>assets!Y22</f>
+        <v>21313999</v>
+      </c>
+      <c r="AA12" s="41">
+        <f>assets!Z22</f>
+        <v>22403433</v>
+      </c>
+      <c r="AB12" s="41">
+        <f>assets!AA22</f>
+        <v>23981906</v>
+      </c>
+      <c r="AC12" s="41">
+        <f>assets!AB22</f>
+        <v>25520581</v>
+      </c>
+      <c r="AD12" s="41">
+        <f>assets!AC22</f>
+        <v>30427866</v>
+      </c>
+      <c r="AE12" s="41">
+        <f>assets!AD22</f>
+        <v>41050979</v>
+      </c>
+      <c r="AF12" s="41">
+        <f>assets!AE22</f>
+        <v>40270460</v>
+      </c>
+      <c r="AG12" s="41">
+        <f>assets!AF22</f>
+        <v>49778852</v>
+      </c>
+      <c r="AH12" s="41">
+        <f>assets!AG22</f>
+        <v>49365165</v>
+      </c>
+      <c r="AI12" s="41">
+        <f>assets!AH22</f>
+        <v>49130923</v>
+      </c>
+      <c r="AJ12" s="41">
+        <f>assets!AI22</f>
+        <v>48703661</v>
+      </c>
+      <c r="AK12" s="41">
+        <f>assets!AJ22</f>
+        <v>48221294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.6">
+      <c r="A13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="41">
+        <f>assets!E38</f>
+        <v>3983682</v>
+      </c>
+      <c r="G13" s="41">
+        <f>assets!F38</f>
+        <v>3874626</v>
+      </c>
+      <c r="H13" s="41">
+        <f>assets!G38</f>
+        <v>3881882</v>
+      </c>
+      <c r="I13" s="41">
+        <f>assets!H38</f>
+        <v>3778526</v>
+      </c>
+      <c r="J13" s="41">
+        <f>assets!I38</f>
+        <v>3694086</v>
+      </c>
+      <c r="K13" s="41">
+        <f>assets!J38</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="41">
+        <f>assets!K38</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="41">
+        <f>assets!L38</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="41">
+        <f>assets!M38</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="41">
+        <f>assets!N38</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="41">
+        <f>assets!O38</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="41">
+        <f>assets!P38</f>
+        <v>5842845</v>
+      </c>
+      <c r="R13" s="41">
+        <f>assets!Q38</f>
+        <v>6652774</v>
+      </c>
+      <c r="S13" s="41">
+        <f>assets!R38</f>
+        <v>6624208</v>
+      </c>
+      <c r="T13" s="41">
+        <f>assets!S38</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="41">
+        <f>assets!T38</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="41">
+        <f>assets!U38</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="41">
+        <f>assets!V38</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="41">
+        <f>assets!W38</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="41">
+        <f>assets!X38</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="41">
+        <f>assets!Y38</f>
+        <v>6362029</v>
+      </c>
+      <c r="AA13" s="41">
+        <f>assets!Z38</f>
+        <v>6793491</v>
+      </c>
+      <c r="AB13" s="41">
+        <f>assets!AA38</f>
+        <v>7741578</v>
+      </c>
+      <c r="AC13" s="41">
+        <f>assets!AB38</f>
+        <v>8954336</v>
+      </c>
+      <c r="AD13" s="41">
+        <f>assets!AC38</f>
+        <v>12421491</v>
+      </c>
+      <c r="AE13" s="41">
+        <f>assets!AD38</f>
+        <v>21546693</v>
+      </c>
+      <c r="AF13" s="41">
+        <f>assets!AE38</f>
+        <v>20310397</v>
+      </c>
+      <c r="AG13" s="41">
+        <f>assets!AF38</f>
+        <v>29575049</v>
+      </c>
+      <c r="AH13" s="41">
+        <f>assets!AG38</f>
+        <v>29532912</v>
+      </c>
+      <c r="AI13" s="41">
+        <f>assets!AH38</f>
+        <v>28906431</v>
+      </c>
+      <c r="AJ13" s="41">
+        <f>assets!AI38</f>
+        <v>28844443</v>
+      </c>
+      <c r="AK13" s="41">
+        <f>assets!AJ38</f>
+        <v>28397464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.6">
+      <c r="A14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>646</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6">
+      <c r="B16" s="68" t="s">
+        <v>647</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>648</v>
+      </c>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:37" ht="28.8">
+      <c r="B17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71" t="str">
+        <f>IFERROR(E2/E3, "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="71">
+        <f>IFERROR(F2/F3, "")</f>
+        <v>1.1841522094730934</v>
+      </c>
+      <c r="G17" s="71">
+        <f>IFERROR(G2/G3, "")</f>
+        <v>1.4451673387942561</v>
+      </c>
+      <c r="H17" s="71">
+        <f>IFERROR(H2/H3, "")</f>
+        <v>1.4186086131083178</v>
+      </c>
+      <c r="I17" s="71">
+        <f>IFERROR(I2/I3, "")</f>
+        <v>1.2793820575322747</v>
+      </c>
+      <c r="J17" s="71">
+        <f>IFERROR(J2/J3, "")</f>
+        <v>1.3238577961605456</v>
+      </c>
+      <c r="K17" s="71" t="str">
+        <f>IFERROR(K2/K3, "")</f>
+        <v/>
+      </c>
+      <c r="L17" s="71" t="str">
+        <f>IFERROR(L2/L3, "")</f>
+        <v/>
+      </c>
+      <c r="M17" s="71" t="str">
+        <f>IFERROR(M2/M3, "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="71" t="str">
+        <f>IFERROR(N2/N3, "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="71" t="str">
+        <f>IFERROR(O2/O3, "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="71" t="str">
+        <f>IFERROR(P2/P3, "")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="71">
+        <f>IFERROR(Q2/Q3, "")</f>
+        <v>1.4168536325213446</v>
+      </c>
+      <c r="R17" s="71">
+        <f>IFERROR(R2/R3, "")</f>
+        <v>1.2638627836314058</v>
+      </c>
+      <c r="S17" s="71">
+        <f>IFERROR(S2/S3, "")</f>
+        <v>1.4011554393842109</v>
+      </c>
+      <c r="T17" s="71" t="str">
+        <f>IFERROR(T2/T3, "")</f>
+        <v/>
+      </c>
+      <c r="U17" s="71" t="str">
+        <f>IFERROR(U2/U3, "")</f>
+        <v/>
+      </c>
+      <c r="V17" s="71" t="str">
+        <f>IFERROR(V2/V3, "")</f>
+        <v/>
+      </c>
+      <c r="W17" s="71" t="str">
+        <f>IFERROR(W2/W3, "")</f>
+        <v/>
+      </c>
+      <c r="X17" s="71" t="str">
+        <f>IFERROR(X2/X3, "")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="71" t="str">
+        <f>IFERROR(Y2/Y3, "")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="71">
+        <f>IFERROR(Z2/Z3, "")</f>
+        <v>1.5758099639422098</v>
+      </c>
+      <c r="AA17" s="71">
+        <f>IFERROR(AA2/AA3, "")</f>
+        <v>1.4436718412818663</v>
+      </c>
+      <c r="AB17" s="71">
+        <f>IFERROR(AB2/AB3, "")</f>
+        <v>1.3728489488464248</v>
+      </c>
+      <c r="AC17" s="71">
+        <f>IFERROR(AC2/AC3, "")</f>
+        <v>1.2851408665222546</v>
+      </c>
+      <c r="AD17" s="71">
+        <f>IFERROR(AD2/AD3, "")</f>
+        <v>1.2927401251753559</v>
+      </c>
+      <c r="AE17" s="71">
+        <f>IFERROR(AE2/AE3, "")</f>
+        <v>1.3617125644604431</v>
+      </c>
+      <c r="AF17" s="71">
+        <f>IFERROR(AF2/AF3, "")</f>
+        <v>1.4338016363213988</v>
+      </c>
+      <c r="AG17" s="71">
+        <f>IFERROR(AG2/AG3, "")</f>
+        <v>1.3703290891368678</v>
+      </c>
+      <c r="AH17" s="71">
+        <f>IFERROR(AH2/AH3, "")</f>
+        <v>1.1425310261233872</v>
+      </c>
+      <c r="AI17" s="71">
+        <f>IFERROR(AI2/AI3, "")</f>
+        <v>1.2019874870397853</v>
+      </c>
+      <c r="AJ17" s="71">
+        <f>IFERROR(AJ2/AJ3, "")</f>
+        <v>1.1055571467645131</v>
+      </c>
+      <c r="AK17" s="71">
+        <f>IFERROR(AK2/AK3, "")</f>
+        <v>1.0982524006941354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="28.8">
+      <c r="B18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71" t="str">
+        <f>IFERROR(IF(E4="","",E2/(E3-E4)), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="71">
+        <f>IFERROR(IF(F4="","",F2/(F3-F4)), "")</f>
+        <v>1.1841522094730934</v>
+      </c>
+      <c r="G18" s="71">
+        <f>IFERROR(IF(G4="","",G2/(G3-G4)), "")</f>
+        <v>1.4451673387942561</v>
+      </c>
+      <c r="H18" s="71">
+        <f>IFERROR(IF(H4="","",H2/(H3-H4)), "")</f>
+        <v>1.4186086131083178</v>
+      </c>
+      <c r="I18" s="71">
+        <f>IFERROR(IF(I4="","",I2/(I3-I4)), "")</f>
+        <v>1.2793820575322747</v>
+      </c>
+      <c r="J18" s="71">
+        <f>IFERROR(IF(J4="","",J2/(J3-J4)), "")</f>
+        <v>1.3238577961605456</v>
+      </c>
+      <c r="K18" s="71" t="str">
+        <f>IFERROR(IF(K4="","",K2/(K3-K4)), "")</f>
+        <v/>
+      </c>
+      <c r="L18" s="71" t="str">
+        <f>IFERROR(IF(L4="","",L2/(L3-L4)), "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="71" t="str">
+        <f>IFERROR(IF(M4="","",M2/(M3-M4)), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="71" t="str">
+        <f>IFERROR(IF(N4="","",N2/(N3-N4)), "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="71" t="str">
+        <f>IFERROR(IF(O4="","",O2/(O3-O4)), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="71" t="str">
+        <f>IFERROR(IF(P4="","",P2/(P3-P4)), "")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="71">
+        <f>IFERROR(IF(Q4="","",Q2/(Q3-Q4)), "")</f>
+        <v>1.4168536325213446</v>
+      </c>
+      <c r="R18" s="71">
+        <f>IFERROR(IF(R4="","",R2/(R3-R4)), "")</f>
+        <v>1.2638627836314058</v>
+      </c>
+      <c r="S18" s="71">
+        <f>IFERROR(IF(S4="","",S2/(S3-S4)), "")</f>
+        <v>1.4011554393842109</v>
+      </c>
+      <c r="T18" s="71" t="str">
+        <f>IFERROR(IF(T4="","",T2/(T3-T4)), "")</f>
+        <v/>
+      </c>
+      <c r="U18" s="71" t="str">
+        <f>IFERROR(IF(U4="","",U2/(U3-U4)), "")</f>
+        <v/>
+      </c>
+      <c r="V18" s="71" t="str">
+        <f>IFERROR(IF(V4="","",V2/(V3-V4)), "")</f>
+        <v/>
+      </c>
+      <c r="W18" s="71" t="str">
+        <f>IFERROR(IF(W4="","",W2/(W3-W4)), "")</f>
+        <v/>
+      </c>
+      <c r="X18" s="71" t="str">
+        <f>IFERROR(IF(X4="","",X2/(X3-X4)), "")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="71" t="str">
+        <f>IFERROR(IF(Y4="","",Y2/(Y3-Y4)), "")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="71">
+        <f>IFERROR(IF(Z4="","",Z2/(Z3-Z4)), "")</f>
+        <v>1.5758099639422098</v>
+      </c>
+      <c r="AA18" s="71">
+        <f>IFERROR(IF(AA4="","",AA2/(AA3-AA4)), "")</f>
+        <v>1.4436718412818663</v>
+      </c>
+      <c r="AB18" s="71">
+        <f>IFERROR(IF(AB4="","",AB2/(AB3-AB4)), "")</f>
+        <v>1.3728489488464248</v>
+      </c>
+      <c r="AC18" s="71">
+        <f>IFERROR(IF(AC4="","",AC2/(AC3-AC4)), "")</f>
+        <v>1.2851408665222546</v>
+      </c>
+      <c r="AD18" s="71">
+        <f>IFERROR(IF(AD4="","",AD2/(AD3-AD4)), "")</f>
+        <v>1.2927401251753559</v>
+      </c>
+      <c r="AE18" s="71">
+        <f>IFERROR(IF(AE4="","",AE2/(AE3-AE4)), "")</f>
+        <v>1.3617125644604431</v>
+      </c>
+      <c r="AF18" s="71">
+        <f>IFERROR(IF(AF4="","",AF2/(AF3-AF4)), "")</f>
+        <v>1.4338016363213988</v>
+      </c>
+      <c r="AG18" s="71">
+        <f>IFERROR(IF(AG4="","",AG2/(AG3-AG4)), "")</f>
+        <v>1.3703290891368678</v>
+      </c>
+      <c r="AH18" s="71">
+        <f>IFERROR(IF(AH4="","",AH2/(AH3-AH4)), "")</f>
+        <v>1.3703290891368678</v>
+      </c>
+      <c r="AI18" s="71">
+        <f>IFERROR(IF(AI4="","",AI2/(AI3-AI4)), "")</f>
+        <v>1.4621128115792499</v>
+      </c>
+      <c r="AJ18" s="71">
+        <f>IFERROR(IF(AJ4="","",AJ2/(AJ3-AJ4)), "")</f>
+        <v>1.3614612883468236</v>
+      </c>
+      <c r="AK18" s="71">
+        <f>IFERROR(IF(AK4="","",AK2/(AK3-AK4)), "")</f>
+        <v>1.3897102245225448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="28.8">
+      <c r="B19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>654</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="71" t="str">
+        <f>IF(E4="","",IF(E5="","",IF(E6="","",(E2-E3+E4)/(E5+E6))))</f>
+        <v/>
+      </c>
+      <c r="F19" s="71" t="str">
+        <f>IF(F4="","",IF(F5="","",IF(F6="","",(F2-F3+F4)/(F5+F6))))</f>
+        <v/>
+      </c>
+      <c r="G19" s="71" t="str">
+        <f>IF(G4="","",IF(G5="","",IF(G6="","",(G2-G3+G4)/(G5+G6))))</f>
+        <v/>
+      </c>
+      <c r="H19" s="71" t="str">
+        <f>IF(H4="","",IF(H5="","",IF(H6="","",(H2-H3+H4)/(H5+H6))))</f>
+        <v/>
+      </c>
+      <c r="I19" s="71" t="str">
+        <f>IF(I4="","",IF(I5="","",IF(I6="","",(I2-I3+I4)/(I5+I6))))</f>
+        <v/>
+      </c>
+      <c r="J19" s="71" t="str">
+        <f>IF(J4="","",IF(J5="","",IF(J6="","",(J2-J3+J4)/(J5+J6))))</f>
+        <v/>
+      </c>
+      <c r="K19" s="71" t="str">
+        <f>IF(K4="","",IF(K5="","",IF(K6="","",(K2-K3+K4)/(K5+K6))))</f>
+        <v/>
+      </c>
+      <c r="L19" s="71" t="str">
+        <f>IF(L4="","",IF(L5="","",IF(L6="","",(L2-L3+L4)/(L5+L6))))</f>
+        <v/>
+      </c>
+      <c r="M19" s="71" t="str">
+        <f>IF(M4="","",IF(M5="","",IF(M6="","",(M2-M3+M4)/(M5+M6))))</f>
+        <v/>
+      </c>
+      <c r="N19" s="71" t="str">
+        <f>IF(N4="","",IF(N5="","",IF(N6="","",(N2-N3+N4)/(N5+N6))))</f>
+        <v/>
+      </c>
+      <c r="O19" s="71" t="str">
+        <f>IF(O4="","",IF(O5="","",IF(O6="","",(O2-O3+O4)/(O5+O6))))</f>
+        <v/>
+      </c>
+      <c r="P19" s="71" t="str">
+        <f>IF(P4="","",IF(P5="","",IF(P6="","",(P2-P3+P4)/(P5+P6))))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="71" t="str">
+        <f>IF(Q4="","",IF(Q5="","",IF(Q6="","",(Q2-Q3+Q4)/(Q5+Q6))))</f>
+        <v/>
+      </c>
+      <c r="R19" s="71" t="str">
+        <f>IF(R4="","",IF(R5="","",IF(R6="","",(R2-R3+R4)/(R5+R6))))</f>
+        <v/>
+      </c>
+      <c r="S19" s="71" t="str">
+        <f>IF(S4="","",IF(S5="","",IF(S6="","",(S2-S3+S4)/(S5+S6))))</f>
+        <v/>
+      </c>
+      <c r="T19" s="71" t="str">
+        <f>IF(T4="","",IF(T5="","",IF(T6="","",(T2-T3+T4)/(T5+T6))))</f>
+        <v/>
+      </c>
+      <c r="U19" s="71" t="str">
+        <f>IF(U4="","",IF(U5="","",IF(U6="","",(U2-U3+U4)/(U5+U6))))</f>
+        <v/>
+      </c>
+      <c r="V19" s="71" t="str">
+        <f>IF(V4="","",IF(V5="","",IF(V6="","",(V2-V3+V4)/(V5+V6))))</f>
+        <v/>
+      </c>
+      <c r="W19" s="71" t="str">
+        <f>IF(W4="","",IF(W5="","",IF(W6="","",(W2-W3+W4)/(W5+W6))))</f>
+        <v/>
+      </c>
+      <c r="X19" s="71" t="str">
+        <f>IF(X4="","",IF(X5="","",IF(X6="","",(X2-X3+X4)/(X5+X6))))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="71" t="str">
+        <f>IF(Y4="","",IF(Y5="","",IF(Y6="","",(Y2-Y3+Y4)/(Y5+Y6))))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="71" t="str">
+        <f>IF(Z4="","",IF(Z5="","",IF(Z6="","",(Z2-Z3+Z4)/(Z5+Z6))))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="71" t="str">
+        <f>IF(AA4="","",IF(AA5="","",IF(AA6="","",(AA2-AA3+AA4)/(AA5+AA6))))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="71" t="str">
+        <f>IF(AB4="","",IF(AB5="","",IF(AB6="","",(AB2-AB3+AB4)/(AB5+AB6))))</f>
+        <v/>
+      </c>
+      <c r="AC19" s="71" t="str">
+        <f>IF(AC4="","",IF(AC5="","",IF(AC6="","",(AC2-AC3+AC4)/(AC5+AC6))))</f>
+        <v/>
+      </c>
+      <c r="AD19" s="71" t="str">
+        <f>IF(AD4="","",IF(AD5="","",IF(AD6="","",(AD2-AD3+AD4)/(AD5+AD6))))</f>
+        <v/>
+      </c>
+      <c r="AE19" s="71" t="str">
+        <f>IF(AE4="","",IF(AE5="","",IF(AE6="","",(AE2-AE3+AE4)/(AE5+AE6))))</f>
+        <v/>
+      </c>
+      <c r="AF19" s="71" t="str">
+        <f>IF(AF4="","",IF(AF5="","",IF(AF6="","",(AF2-AF3+AF4)/(AF5+AF6))))</f>
+        <v/>
+      </c>
+      <c r="AG19" s="71" t="str">
+        <f>IF(AG4="","",IF(AG5="","",IF(AG6="","",(AG2-AG3+AG4)/(AG5+AG6))))</f>
+        <v/>
+      </c>
+      <c r="AH19" s="71" t="str">
+        <f>IF(AH4="","",IF(AH5="","",IF(AH6="","",(AH2-AH3+AH4)/(AH5+AH6))))</f>
+        <v/>
+      </c>
+      <c r="AI19" s="71" t="str">
+        <f>IF(AI4="","",IF(AI5="","",IF(AI6="","",(AI2-AI3+AI4)/(AI5+AI6))))</f>
+        <v/>
+      </c>
+      <c r="AJ19" s="71" t="str">
+        <f>IF(AJ4="","",IF(AJ5="","",IF(AJ6="","",(AJ2-AJ3+AJ4)/(AJ5+AJ6))))</f>
+        <v/>
+      </c>
+      <c r="AK19" s="71" t="str">
+        <f>IF(AK4="","",IF(AK5="","",IF(AK6="","",(AK2-AK3+AK4)/(AK5+AK6))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="28.8">
+      <c r="B20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>656</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="71" t="str">
+        <f>IFERROR(IF(E7=0,"",E7/E8), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="71">
+        <f t="shared" ref="F20:AK20" si="0">IFERROR(IF(F7=0,"",F7/F8), "")</f>
+        <v>4.2682068384550584</v>
+      </c>
+      <c r="G20" s="71">
+        <f t="shared" si="0"/>
+        <v>5.2570033601277224</v>
+      </c>
+      <c r="H20" s="71">
+        <f t="shared" si="0"/>
+        <v>4.5995174196460722</v>
+      </c>
+      <c r="I20" s="71">
+        <f t="shared" si="0"/>
+        <v>4.6940431293993887</v>
+      </c>
+      <c r="J20" s="71">
+        <f t="shared" si="0"/>
+        <v>4.3826307379154219</v>
+      </c>
+      <c r="K20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q20" s="71">
+        <f t="shared" si="0"/>
+        <v>2.1271430301740115</v>
+      </c>
+      <c r="R20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.7093884389158436</v>
+      </c>
+      <c r="S20" s="71">
+        <f t="shared" si="0"/>
+        <v>2.469733763172957</v>
+      </c>
+      <c r="T20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.1362797688947344</v>
+      </c>
+      <c r="AA20" s="71">
+        <f t="shared" si="0"/>
+        <v>0.77693550065372485</v>
+      </c>
+      <c r="AB20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.53348347754294</v>
+      </c>
+      <c r="AC20" s="71">
+        <f t="shared" si="0"/>
+        <v>0.87196772074365658</v>
+      </c>
+      <c r="AD20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.1319056865178234</v>
+      </c>
+      <c r="AE20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.0403545501099496</v>
+      </c>
+      <c r="AF20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.7374124291232043</v>
+      </c>
+      <c r="AG20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.2734254504803229</v>
+      </c>
+      <c r="AH20" s="71">
+        <f t="shared" si="0"/>
+        <v>1.2734254504803229</v>
+      </c>
+      <c r="AI20" s="71">
+        <f t="shared" si="0"/>
+        <v>2.4053986023822551</v>
+      </c>
+      <c r="AJ20" s="71">
+        <f t="shared" si="0"/>
+        <v>3.8776882510380779</v>
+      </c>
+      <c r="AK20" s="71">
+        <f t="shared" si="0"/>
+        <v>2.6240623690726901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="28.8">
+      <c r="B21" t="s">
+        <v>657</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>658</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73" t="str">
+        <f>IFERROR(IF(E9=0,"",IF(E4="","",IF(E9="","",E9/((E3-E4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="73" t="str">
+        <f t="shared" ref="F21:AK21" si="1">IFERROR(IF(F9=0,"",IF(F4="","",IF(F9="","",F9/((F3-F4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="28.8">
+      <c r="B22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>660</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="74" t="str">
+        <f>IFERROR(IF(E10="","",E10/E11), "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="74" t="str">
+        <f t="shared" ref="F22:AK22" si="2">IFERROR(IF(F10="","",F10/F11), "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="28.8">
+      <c r="B23" t="s">
+        <v>661</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71" t="str">
+        <f>IFERROR(IF(E12=0,"",IF(E13=0,"",E13/(E12-E13))),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="71">
+        <f t="shared" ref="F23:AK23" si="3">IFERROR(IF(F12=0,"",IF(F13=0,"",F13/(F12-F13))),"")</f>
+        <v>0.58864976695203586</v>
+      </c>
+      <c r="G23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.54454866120856782</v>
+      </c>
+      <c r="H23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.51515342935136732</v>
+      </c>
+      <c r="I23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.49326225497299186</v>
+      </c>
+      <c r="J23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.47293714140862597</v>
+      </c>
+      <c r="K23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.74462382754956957</v>
+      </c>
+      <c r="R23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.83105905479154984</v>
+      </c>
+      <c r="S23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.64468625475519037</v>
+      </c>
+      <c r="T23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y23" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.42549771033515987</v>
+      </c>
+      <c r="AA23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.4352028341937465</v>
+      </c>
+      <c r="AB23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.47668852501008602</v>
+      </c>
+      <c r="AC23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.54051693669869061</v>
+      </c>
+      <c r="AD23" s="71">
+        <f t="shared" si="3"/>
+        <v>0.68983851552575126</v>
+      </c>
+      <c r="AE23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.1047158045159919</v>
+      </c>
+      <c r="AF23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.01755174820841</v>
+      </c>
+      <c r="AG23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.4638357441913288</v>
+      </c>
+      <c r="AH23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.4891355006413038</v>
+      </c>
+      <c r="AI23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.4292784708758075</v>
+      </c>
+      <c r="AJ23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.452446063082645</v>
+      </c>
+      <c r="AK23" s="71">
+        <f t="shared" si="3"/>
+        <v>1.432491299612638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="28.8">
+      <c r="A24" t="s">
+        <v>663</v>
+      </c>
+      <c r="B24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>665</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="75" t="str">
+        <f>IFERROR(IF(E10="","",IF(E10=0,"",E10/E4)),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="75" t="str">
+        <f>IFERROR(IF(F10="","",IF(F10=0,"",F10/F4)),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="75" t="str">
+        <f>IFERROR(IF(G10="","",IF(G10=0,"",G10/G4)),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="75" t="str">
+        <f>IFERROR(IF(H10="","",IF(H10=0,"",H10/H4)),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="75" t="str">
+        <f>IFERROR(IF(I10="","",IF(I10=0,"",I10/I4)),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="75" t="str">
+        <f>IFERROR(IF(J10="","",IF(J10=0,"",J10/J4)),"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="75" t="str">
+        <f>IFERROR(IF(K10="","",IF(K10=0,"",K10/K4)),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="75" t="str">
+        <f>IFERROR(IF(L10="","",IF(L10=0,"",L10/L4)),"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="75" t="str">
+        <f>IFERROR(IF(M10="","",IF(M10=0,"",M10/M4)),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="75" t="str">
+        <f>IFERROR(IF(N10="","",IF(N10=0,"",N10/N4)),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="75" t="str">
+        <f>IFERROR(IF(O10="","",IF(O10=0,"",O10/O4)),"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="75" t="str">
+        <f>IFERROR(IF(P10="","",IF(P10=0,"",P10/P4)),"")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="75" t="str">
+        <f>IFERROR(IF(Q10="","",IF(Q10=0,"",Q10/Q4)),"")</f>
+        <v/>
+      </c>
+      <c r="R24" s="75" t="str">
+        <f>IFERROR(IF(R10="","",IF(R10=0,"",R10/R4)),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="75" t="str">
+        <f>IFERROR(IF(S10="","",IF(S10=0,"",S10/S4)),"")</f>
+        <v/>
+      </c>
+      <c r="T24" s="75" t="str">
+        <f>IFERROR(IF(T10="","",IF(T10=0,"",T10/T4)),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="75" t="str">
+        <f>IFERROR(IF(U10="","",IF(U10=0,"",U10/U4)),"")</f>
+        <v/>
+      </c>
+      <c r="V24" s="75" t="str">
+        <f>IFERROR(IF(V10="","",IF(V10=0,"",V10/V4)),"")</f>
+        <v/>
+      </c>
+      <c r="W24" s="75" t="str">
+        <f>IFERROR(IF(W10="","",IF(W10=0,"",W10/W4)),"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="75" t="str">
+        <f>IFERROR(IF(X10="","",IF(X10=0,"",X10/X4)),"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="75" t="str">
+        <f>IFERROR(IF(Y10="","",IF(Y10=0,"",Y10/Y4)),"")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="75" t="str">
+        <f>IFERROR(IF(Z10="","",IF(Z10=0,"",Z10/Z4)),"")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="75" t="str">
+        <f>IFERROR(IF(AA10="","",IF(AA10=0,"",AA10/AA4)),"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="75" t="str">
+        <f>IFERROR(IF(AB10="","",IF(AB10=0,"",AB10/AB4)),"")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="75" t="str">
+        <f>IFERROR(IF(AC10="","",IF(AC10=0,"",AC10/AC4)),"")</f>
+        <v/>
+      </c>
+      <c r="AD24" s="75" t="str">
+        <f>IFERROR(IF(AD10="","",IF(AD10=0,"",AD10/AD4)),"")</f>
+        <v/>
+      </c>
+      <c r="AE24" s="75" t="str">
+        <f>IFERROR(IF(AE10="","",IF(AE10=0,"",AE10/AE4)),"")</f>
+        <v/>
+      </c>
+      <c r="AF24" s="75" t="str">
+        <f>IFERROR(IF(AF10="","",IF(AF10=0,"",AF10/AF4)),"")</f>
+        <v/>
+      </c>
+      <c r="AG24" s="75" t="str">
+        <f>IFERROR(IF(AG10="","",IF(AG10=0,"",AG10/AG4)),"")</f>
+        <v/>
+      </c>
+      <c r="AH24" s="75" t="str">
+        <f>IFERROR(IF(AH10="","",IF(AH10=0,"",AH10/AH4)),"")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="75" t="str">
+        <f>IFERROR(IF(AI10="","",IF(AI10=0,"",AI10/AI4)),"")</f>
+        <v/>
+      </c>
+      <c r="AJ24" s="75" t="str">
+        <f>IFERROR(IF(AJ10="","",IF(AJ10=0,"",AJ10/AJ4)),"")</f>
+        <v/>
+      </c>
+      <c r="AK24" s="75" t="str">
+        <f>IFERROR(IF(AK10="","",IF(AK10=0,"",AK10/AK4)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>666</v>
+      </c>
+      <c r="B25" t="s">
+        <v>667</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="67" t="str">
+        <f>IFERROR(IF(E14=0,"",IF(E14&lt;0,"",E14)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="67" t="str">
+        <f t="shared" ref="F25:AK25" si="4">IFERROR(IF(F14=0,"",IF(F14&lt;0,"",F14)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="28.8">
+      <c r="B26" t="s">
+        <v>668</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>669</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="74" t="str">
+        <f>IFERROR(IF(E25/E4=0, "",E25/E4),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="74" t="str">
+        <f t="shared" ref="F26:AK26" si="5">IFERROR(IF(F25/F4=0, "",F25/F4),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK26" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+    </row>
+    <row r="28" spans="1:37" ht="28.8">
+      <c r="B28" s="77" t="s">
+        <v>670</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="B29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -63457,16 +66762,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -67931,12 +71236,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -68952,16 +72257,16 @@
       <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="1"/>
-    <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -70064,17 +73369,17 @@
       <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="8.7109375" style="1"/>
-    <col min="17" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="10" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -73206,9 +76511,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -73259,12 +76564,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="8.7109375" style="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -74210,9 +77515,9 @@
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
